--- a/Session5/Reporte/EDE.xlsx
+++ b/Session5/Reporte/EDE.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UnADM\Documents\ESCUELA\GitHub\Cryptography\Session5\Reporte\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\Crypto\Cryptography\Session5\Reporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9590A97A-7F12-4AD7-8EC1-EE29405CDAAF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{DAA030A1-45A4-4219-96BA-7377F6D53240}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="EDE2keys" sheetId="3" r:id="rId1"/>
     <sheet name="EDE3keys" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -82,7 +81,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -215,6 +214,2589 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Time in MS</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>EDE2keys!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CBC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>EDE2keys!$B$5:$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>sistemas_operativos.pdf</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mov_Pendulo_Simple.mov</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ArquitecturaComputadoras.PDF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Recursos_Apuntes_21_Vectorial.doc</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Aparato_Respiratorio.pptm</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ha.exe</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>guia-tkinter.pdf</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ipn.PNG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>EDE2keys!$C$5:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1830</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>876</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>551</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-35FA-49B3-873D-43950F8070CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>EDE2keys!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CTR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>EDE2keys!$B$5:$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>sistemas_operativos.pdf</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mov_Pendulo_Simple.mov</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ArquitecturaComputadoras.PDF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Recursos_Apuntes_21_Vectorial.doc</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Aparato_Respiratorio.pptm</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ha.exe</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>guia-tkinter.pdf</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ipn.PNG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>EDE2keys!$D$5:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1055</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1082</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>479</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-35FA-49B3-873D-43950F8070CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>EDE2keys!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OFB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>EDE2keys!$B$5:$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>sistemas_operativos.pdf</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mov_Pendulo_Simple.mov</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ArquitecturaComputadoras.PDF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Recursos_Apuntes_21_Vectorial.doc</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Aparato_Respiratorio.pptm</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ha.exe</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>guia-tkinter.pdf</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ipn.PNG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>EDE2keys!$E$5:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>919</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>451</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>58</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-35FA-49B3-873D-43950F8070CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>EDE2keys!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CFB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>EDE2keys!$B$5:$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>sistemas_operativos.pdf</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mov_Pendulo_Simple.mov</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ArquitecturaComputadoras.PDF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Recursos_Apuntes_21_Vectorial.doc</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Aparato_Respiratorio.pptm</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ha.exe</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>guia-tkinter.pdf</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ipn.PNG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>EDE2keys!$F$5:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>984</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1156</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-35FA-49B3-873D-43950F8070CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="479183408"/>
+        <c:axId val="479185376"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="479183408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="479185376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="479185376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="479183408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Time</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> in MS</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>EDE3keys!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CBC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>EDE3keys!$B$6:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>sistemas_operativos.pdf</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mov_Pendulo_Simple.mov</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ArquitecturaComputadoras.PDF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Recursos_Apuntes_21_Vectorial.doc</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Aparato_Respiratorio.pptm</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ha.exe</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>guia-tkinter.pdf</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ipn.PNG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>EDE3keys!$C$6:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1777</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>825</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>429</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0F04-4389-8A6D-D60B657CCAE8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>EDE3keys!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CTR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>EDE3keys!$B$6:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>sistemas_operativos.pdf</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mov_Pendulo_Simple.mov</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ArquitecturaComputadoras.PDF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Recursos_Apuntes_21_Vectorial.doc</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Aparato_Respiratorio.pptm</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ha.exe</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>guia-tkinter.pdf</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ipn.PNG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>EDE3keys!$D$6:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1223</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>919</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>459</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>102</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0F04-4389-8A6D-D60B657CCAE8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>EDE3keys!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OFB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>EDE3keys!$B$6:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>sistemas_operativos.pdf</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mov_Pendulo_Simple.mov</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ArquitecturaComputadoras.PDF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Recursos_Apuntes_21_Vectorial.doc</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Aparato_Respiratorio.pptm</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ha.exe</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>guia-tkinter.pdf</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ipn.PNG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>EDE3keys!$E$6:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1161</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>872</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>473</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0F04-4389-8A6D-D60B657CCAE8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>EDE3keys!$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CFB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>EDE3keys!$B$6:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>sistemas_operativos.pdf</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mov_Pendulo_Simple.mov</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ArquitecturaComputadoras.PDF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Recursos_Apuntes_21_Vectorial.doc</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Aparato_Respiratorio.pptm</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ha.exe</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>guia-tkinter.pdf</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ipn.PNG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>EDE3keys!$F$6:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1133</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>802</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>519</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0F04-4389-8A6D-D60B657CCAE8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="468404024"/>
+        <c:axId val="367268080"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="468404024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="367268080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="367268080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="468404024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>126309</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>108917</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>124239</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>236114</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>268310</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -513,11 +3095,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED56ACC4-0632-4FF2-B87F-6D5985DA7CE5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="B1" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,88 +3137,153 @@
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="C5" s="2">
+        <v>1830</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1055</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1002</v>
+      </c>
+      <c r="F5" s="2">
+        <v>984</v>
+      </c>
     </row>
     <row r="6" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="C6" s="2">
+        <v>876</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1082</v>
+      </c>
+      <c r="E6" s="2">
+        <v>919</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1156</v>
+      </c>
     </row>
     <row r="7" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="C7" s="2">
+        <v>551</v>
+      </c>
+      <c r="D7" s="2">
+        <v>479</v>
+      </c>
+      <c r="E7" s="2">
+        <v>451</v>
+      </c>
+      <c r="F7" s="2">
+        <v>536</v>
+      </c>
     </row>
     <row r="8" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="C8" s="2">
+        <v>376</v>
+      </c>
+      <c r="D8" s="2">
+        <v>393</v>
+      </c>
+      <c r="E8" s="2">
+        <v>299</v>
+      </c>
+      <c r="F8" s="2">
+        <v>338</v>
+      </c>
     </row>
     <row r="9" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="C9" s="2">
+        <v>211</v>
+      </c>
+      <c r="D9" s="2">
+        <v>221</v>
+      </c>
+      <c r="E9" s="2">
+        <v>147</v>
+      </c>
+      <c r="F9" s="2">
+        <v>161</v>
+      </c>
     </row>
     <row r="10" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="C10" s="2">
+        <v>93</v>
+      </c>
+      <c r="D10" s="2">
+        <v>104</v>
+      </c>
+      <c r="E10" s="2">
+        <v>83</v>
+      </c>
+      <c r="F10" s="2">
+        <v>153</v>
+      </c>
     </row>
     <row r="11" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="C11" s="2">
+        <v>101</v>
+      </c>
+      <c r="D11" s="2">
+        <v>118</v>
+      </c>
+      <c r="E11" s="2">
+        <v>81</v>
+      </c>
+      <c r="F11" s="2">
+        <v>75</v>
+      </c>
     </row>
     <row r="12" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="C12" s="2">
+        <v>90</v>
+      </c>
+      <c r="D12" s="2">
+        <v>67</v>
+      </c>
+      <c r="E12" s="2">
+        <v>58</v>
+      </c>
+      <c r="F12" s="2">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC5959D-C5E8-4EE4-A667-CC96D13BABF0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,78 +3321,143 @@
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="C6" s="2">
+        <v>1777</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1223</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1161</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1133</v>
+      </c>
     </row>
     <row r="7" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="C7" s="2">
+        <v>825</v>
+      </c>
+      <c r="D7" s="2">
+        <v>919</v>
+      </c>
+      <c r="E7" s="2">
+        <v>872</v>
+      </c>
+      <c r="F7" s="2">
+        <v>802</v>
+      </c>
     </row>
     <row r="8" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="C8" s="2">
+        <v>429</v>
+      </c>
+      <c r="D8" s="2">
+        <v>459</v>
+      </c>
+      <c r="E8" s="2">
+        <v>473</v>
+      </c>
+      <c r="F8" s="2">
+        <v>519</v>
+      </c>
     </row>
     <row r="9" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="C9" s="2">
+        <v>329</v>
+      </c>
+      <c r="D9" s="2">
+        <v>304</v>
+      </c>
+      <c r="E9" s="2">
+        <v>320</v>
+      </c>
+      <c r="F9" s="2">
+        <v>287</v>
+      </c>
     </row>
     <row r="10" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="C10" s="2">
+        <v>180</v>
+      </c>
+      <c r="D10" s="2">
+        <v>160</v>
+      </c>
+      <c r="E10" s="2">
+        <v>159</v>
+      </c>
+      <c r="F10" s="2">
+        <v>150</v>
+      </c>
     </row>
     <row r="11" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="C11" s="2">
+        <v>170</v>
+      </c>
+      <c r="D11" s="2">
+        <v>85</v>
+      </c>
+      <c r="E11" s="2">
+        <v>90</v>
+      </c>
+      <c r="F11" s="2">
+        <v>90</v>
+      </c>
     </row>
     <row r="12" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="C12" s="2">
+        <v>50</v>
+      </c>
+      <c r="D12" s="2">
+        <v>83</v>
+      </c>
+      <c r="E12" s="2">
+        <v>40</v>
+      </c>
+      <c r="F12" s="2">
+        <v>50</v>
+      </c>
     </row>
     <row r="13" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="C13" s="2">
+        <v>43</v>
+      </c>
+      <c r="D13" s="2">
+        <v>102</v>
+      </c>
+      <c r="E13" s="2">
+        <v>40</v>
+      </c>
+      <c r="F13" s="2">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B4:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>